--- a/data/C 여성경제활동인구 및 참가율 (통계청).xlsx
+++ b/data/C 여성경제활동인구 및 참가율 (통계청).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\22-P\Data Journalism\code\Grooming\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\22-P\Data Journalism\code\Grooming-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E9791F-7723-439D-AFE7-055A9F5F416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C187A6-B5D8-474C-B91A-A98C4D7D70F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3854E973-C830-4033-BD89-E5EDEFF228E6}"/>
   </bookViews>
@@ -42,53 +42,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>여성경제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF171717"/>
-        <rFont val="나눔고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF171717"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활동인구</t>
-    </r>
+    <t>rate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>여성경제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF171717"/>
-        <rFont val="나눔고딕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF171717"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활동참가율</t>
-    </r>
+    <t>people</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,19 +80,6 @@
       <color rgb="FF171717"/>
       <name val="나눔고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF171717"/>
-      <name val="나눔고딕"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF171717"/>
-      <name val="나눔고딕"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -507,7 +452,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -521,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
